--- a/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
+++ b/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FredrickMutua\Documents\UiPath\Customer_Issue_Resolution_Bot\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632D4A3-10B4-4648-B54B-DCC6CA5B5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7D2C6-7147-435E-9FEF-DD6225A2EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B9E339D8-5102-4FDB-A5C5-07ECB7712C3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9E339D8-5102-4FDB-A5C5-07ECB7712C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Issue Log" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +50,6 @@
     <t>AI Genereated Response</t>
   </si>
   <si>
-    <t>Staus (Resolved/Unresolved)</t>
-  </si>
-  <si>
     <t>Date of Resolution</t>
   </si>
   <si>
@@ -105,6 +102,18 @@
   </si>
   <si>
     <t>Escalated (Yes/No)</t>
+  </si>
+  <si>
+    <t>Email Body</t>
+  </si>
+  <si>
+    <t>Customer Email</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
   </si>
 </sst>
 </file>
@@ -485,40 +494,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5E927-5256-49CB-B63F-9076C9E9FC05}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -547,25 +564,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDBAA3B-35A9-4F52-8920-39167EE27CE3}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -593,22 +610,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -636,22 +653,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
+++ b/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FredrickMutua\Documents\UiPath\Customer_Issue_Resolution_Bot\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7D2C6-7147-435E-9FEF-DD6225A2EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FABE48-38E8-4883-A147-1FF1086239D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9E339D8-5102-4FDB-A5C5-07ECB7712C3D}"/>
   </bookViews>
@@ -39,38 +39,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Customer Email</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
+  </si>
+  <si>
+    <t>Email Body</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>AI Genereated Response</t>
+  </si>
+  <si>
+    <t>Issue Category</t>
+  </si>
+  <si>
+    <t>Date of Resolution</t>
+  </si>
+  <si>
+    <t>10/15/2024 08:10:28</t>
+  </si>
+  <si>
+    <t>kiongobob@gmail.com</t>
+  </si>
+  <si>
+    <t>Fwd: Question About Your Service Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:35 AM
+Subject: Fwd: Question About Your Service Hours
+To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:33 AM
+Subject: Question About Your Service Hours
+To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
+Dear Team,
+I was wondering if you could confirm your operating hours during the weekend. I would like to visit your store, but I want to make sure it’s open before I plan my trip.
+Thank you in advance!
+Best,
+Bob
+</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
+    <t>Fwd: New account configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:35 AM
+Subject: Fwd: New account configuration
+To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:31 AM
+Subject: New account configuration
+To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
+Hello, could you please provide a link to the documentation or other resources on how to configure a new admin account to configure multiple users?
+regards</t>
+  </si>
+  <si>
+    <t>Fwd: Trouble with account payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:35 AM
+Subject: Fwd: Trouble with account payment
+To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:29 AM
+Subject: Trouble with account payment
+To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
+My payment is failing, kindly assist.
+Regards.</t>
+  </si>
+  <si>
+    <t>Fwd: Ethernet cable not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Tue, Oct 15, 2024 at 5:35 AM
+Subject: Fwd: Ethernet cable not working
+To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
+---------- Forwarded message ---------
+From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
+Date: Mon, Oct 14, 2024 at 12:38 PM
+Subject: Ethernet cable not working
+To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
+Hello, I hope this email finds you well. My ethernet cable is not working as expected, kindly assist.
+Regards,
+Bob.</t>
+  </si>
+  <si>
+    <t>Date Escalated</t>
+  </si>
+  <si>
     <t>Customer email</t>
   </si>
   <si>
-    <t>AI Genereated Response</t>
-  </si>
-  <si>
-    <t>Date of Resolution</t>
-  </si>
-  <si>
-    <t>Issue Category</t>
-  </si>
-  <si>
-    <t>Date Escalated</t>
-  </si>
-  <si>
     <t>Issue Description (Email body)</t>
   </si>
   <si>
+    <t xml:space="preserve">AI Attempts </t>
+  </si>
+  <si>
     <t>Assigned Agent</t>
   </si>
   <si>
     <t>Status (Pending/Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">AI Attempts </t>
-  </si>
-  <si>
     <t>Number of Issues Handled</t>
   </si>
   <si>
@@ -102,18 +200,6 @@
   </si>
   <si>
     <t>Escalated (Yes/No)</t>
-  </si>
-  <si>
-    <t>Email Body</t>
-  </si>
-  <si>
-    <t>Customer Email</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Email Subject</t>
   </si>
 </sst>
 </file>
@@ -157,9 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,48 +583,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5E927-5256-49CB-B63F-9076C9E9FC05}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -562,27 +719,27 @@
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -608,24 +765,24 @@
     <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -651,24 +808,24 @@
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
+++ b/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FredrickMutua\Documents\UiPath\Customer_Issue_Resolution_Bot\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FABE48-38E8-4883-A147-1FF1086239D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30328FB-C816-4266-B17D-D244127F68D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9E339D8-5102-4FDB-A5C5-07ECB7712C3D}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Customer Email</t>
-  </si>
-  <si>
     <t>Email Subject</t>
   </si>
   <si>
@@ -63,92 +60,6 @@
   </si>
   <si>
     <t>Date of Resolution</t>
-  </si>
-  <si>
-    <t>10/15/2024 08:10:28</t>
-  </si>
-  <si>
-    <t>kiongobob@gmail.com</t>
-  </si>
-  <si>
-    <t>Fwd: Question About Your Service Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:35 AM
-Subject: Fwd: Question About Your Service Hours
-To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:33 AM
-Subject: Question About Your Service Hours
-To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
-Dear Team,
-I was wondering if you could confirm your operating hours during the weekend. I would like to visit your store, but I want to make sure it’s open before I plan my trip.
-Thank you in advance!
-Best,
-Bob
-</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
-  </si>
-  <si>
-    <t>Fwd: New account configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:35 AM
-Subject: Fwd: New account configuration
-To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:31 AM
-Subject: New account configuration
-To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
-Hello, could you please provide a link to the documentation or other resources on how to configure a new admin account to configure multiple users?
-regards</t>
-  </si>
-  <si>
-    <t>Fwd: Trouble with account payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:35 AM
-Subject: Fwd: Trouble with account payment
-To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:29 AM
-Subject: Trouble with account payment
-To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
-My payment is failing, kindly assist.
-Regards.</t>
-  </si>
-  <si>
-    <t>Fwd: Ethernet cable not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Tue, Oct 15, 2024 at 5:35 AM
-Subject: Fwd: Ethernet cable not working
-To: &lt;mutuahfredrick@gmail.com &lt;mailto:mutuahfredrick@gmail.com&gt; &gt;
----------- Forwarded message ---------
-From: Bob Kiongo &lt;kiongobob@gmail.com &lt;mailto:kiongobob@gmail.com&gt; &gt;
-Date: Mon, Oct 14, 2024 at 12:38 PM
-Subject: Ethernet cable not working
-To: &lt;brian.njogu@griffinglobaltech.com &lt;mailto:brian.njogu@griffinglobaltech.com&gt; &gt;
-Hello, I hope this email finds you well. My ethernet cable is not working as expected, kindly assist.
-Regards,
-Bob.</t>
   </si>
   <si>
     <t>Date Escalated</t>
@@ -586,16 +497,16 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -605,95 +516,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,25 +574,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -767,22 +620,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -810,22 +663,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
+++ b/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FredrickMutua\Documents\UiPath\Customer_Issue_Resolution_Bot\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30328FB-C816-4266-B17D-D244127F68D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A14E361-9ACF-4175-8A55-E8C21A0B173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9E339D8-5102-4FDB-A5C5-07ECB7712C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Issue Log" sheetId="1" r:id="rId1"/>
-    <sheet name="Escalation Tracker" sheetId="2" r:id="rId2"/>
-    <sheet name="Performance Analytics" sheetId="3" r:id="rId3"/>
-    <sheet name="Customer Satisfaction " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Customer Email</t>
+  </si>
+  <si>
     <t>Email Subject</t>
   </si>
   <si>
@@ -62,55 +62,110 @@
     <t>Date of Resolution</t>
   </si>
   <si>
-    <t>Date Escalated</t>
-  </si>
-  <si>
-    <t>Customer email</t>
-  </si>
-  <si>
-    <t>Issue Description (Email body)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI Attempts </t>
-  </si>
-  <si>
-    <t>Assigned Agent</t>
-  </si>
-  <si>
-    <t>Status (Pending/Resolved</t>
-  </si>
-  <si>
-    <t>Number of Issues Handled</t>
-  </si>
-  <si>
-    <t>Number of issues Resolved by AI</t>
-  </si>
-  <si>
-    <t>Number of Escalated Issues</t>
-  </si>
-  <si>
-    <t>Avaerage Response Time (AI)</t>
-  </si>
-  <si>
-    <t>Average Resolution Time (Escalated Issues)</t>
-  </si>
-  <si>
-    <t>Customer Satisfaction Scores</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>Satisfaction Rating Scale (Scale 1-5)</t>
-  </si>
-  <si>
-    <t>Feedback/Comments</t>
-  </si>
-  <si>
-    <t>Resolution Date</t>
-  </si>
-  <si>
-    <t>Escalated (Yes/No)</t>
+    <t>10/15/2024 14:12:53</t>
+  </si>
+  <si>
+    <t>kiongobob@gmail.com</t>
+  </si>
+  <si>
+    <t>Question About Your Service Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Team,
+I was wondering if you could confirm your operating hours during the weekend. I would like to visit your store, but I want to make sure it’s open before I plan my trip.
+Thank you in advance!
+Best,
+Bob
+</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
+    <t>10/15/2024 14:12:54</t>
+  </si>
+  <si>
+    <t>New account configuration</t>
+  </si>
+  <si>
+    <t>Hello, could you please provide a link to the documentation or other resources on how to configure a new admin account to configure multiple users?
+regards</t>
+  </si>
+  <si>
+    <t>Trouble with account payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My payment is failing, kindly assist.
+Regards.
+</t>
+  </si>
+  <si>
+    <t>10/15/2024 14:12:55</t>
+  </si>
+  <si>
+    <t>Ethernet cable not working</t>
+  </si>
+  <si>
+    <t>Hello, I hope this email finds you well. My ethernet cable is not working as expected, kindly assist.
+Regards,
+Bob.</t>
+  </si>
+  <si>
+    <t>Request for Product Pricing Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Sales Team,
+I am interested in purchasing one of your products (Model XYZ) and would like to know more about the pricing and any available discounts. Could you also provide information on bulk purchasing options?
+Thanks in advance!
+Best,
+</t>
+  </si>
+  <si>
+    <t>Request to Cancel My Subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Support Team,
+I would like to cancel my subscription to your service effective immediately. Please confirm once the cancellation has been processed and let me know if there are any further steps I need to take.
+Thank you.
+Regards,
+Peter Combs
+</t>
+  </si>
+  <si>
+    <t>10/15/2024 14:12:56</t>
+  </si>
+  <si>
+    <t>Data Privacy Request - Access to My Personal Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Compliance Team,
+I am writing to request access to all the personal information your company has collected about me as per [applicable law, e.g., GDPR]. Could you please provide the relevant details and explain how my data is being used?
+Thank you for your cooperation.
+Kind regards,
+Jane Doe
+</t>
+  </si>
+  <si>
+    <t>Collaboration Opportunity - Partnership Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Techly,
+My name is [Your Name], and I represent [Your Company]. We are interested in exploring a partnership opportunity with you to [briefly explain the partnership idea]. I believe this could be mutually beneficial and would love to discuss it further.
+Looking forward to hearing from you.
+Best regards,
+John Doe
+</t>
+  </si>
+  <si>
+    <t>Billing Issue - Incorrect Charges on Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Customer Service Team,
+I hope you are well. I recently received my invoice (Invoice No: 123456) and noticed a charge that I believe is incorrect. It shows an extra fee for a service I did not subscribe to. Could you please review this and provide clarification or adjust the billing accordingly?
+Thank you for your assistance.
+Best regards,
+Brian
+</t>
   </si>
 </sst>
 </file>
@@ -128,18 +183,24 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,10 +217,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,191 +555,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5E927-5256-49CB-B63F-9076C9E9FC05}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF059A-0456-4AE3-B16E-738C52E703DC}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDBAA3B-35A9-4F52-8920-39167EE27CE3}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50D9F38-E655-47BF-ABB7-1651CDD11988}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
+++ b/Data/Output/Customer_Issue_Resolutionxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FredrickMutua\Documents\UiPath\Customer_Issue_Resolution_Bot\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A14E361-9ACF-4175-8A55-E8C21A0B173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11E7911-35D2-41DA-981E-312F7BC71959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9E339D8-5102-4FDB-A5C5-07ECB7712C3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date of Resolution</t>
   </si>
   <si>
-    <t>10/15/2024 14:12:53</t>
+    <t>10/15/2024 20:50:43</t>
   </si>
   <si>
     <t>kiongobob@gmail.com</t>
@@ -79,10 +79,24 @@
 </t>
   </si>
   <si>
-    <t>Unresolved</t>
-  </si>
-  <si>
-    <t>10/15/2024 14:12:54</t>
+    <t>Solution Mailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Reply to the customer acknowledging the issue and thanking them for bringing it to your attention.
+2. Review the invoice (No: 123456) to verify the extra charge and compare it with the services the customer has subscribed to.
+3. If the charge is indeed incorrect, adjust the billing accordingly and provide the customer with an updated invoice reflecting the correct amount.
+4. Inform the customer of the correction made and apologize for any inconvenience caused by the billing error.
+Would you like any assistance in drafting a response email to the customer?</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>10/15/2024 20:51:20</t>
+  </si>
+  <si>
+    <t>10/15/2024 20:50:44</t>
   </si>
   <si>
     <t>New account configuration</t>
@@ -98,9 +112,6 @@
     <t xml:space="preserve">My payment is failing, kindly assist.
 Regards.
 </t>
-  </si>
-  <si>
-    <t>10/15/2024 14:12:55</t>
   </si>
   <si>
     <t>Ethernet cable not working</t>
@@ -119,6 +130,9 @@
 Thanks in advance!
 Best,
 </t>
+  </si>
+  <si>
+    <t>10/15/2024 20:50:45</t>
   </si>
   <si>
     <t>Request to Cancel My Subscription</t>
@@ -130,9 +144,6 @@
 Regards,
 Peter Combs
 </t>
-  </si>
-  <si>
-    <t>10/15/2024 14:12:56</t>
   </si>
   <si>
     <t>Data Privacy Request - Access to My Personal Information</t>
@@ -220,7 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,23 +570,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5E927-5256-49CB-B63F-9076C9E9FC05}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="28.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,157 +605,238 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
